--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ЧМЗ ОПРО_LAR (Средний LAR(Det))(02.09.2015 0-00-52).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ЧМЗ ОПРО_LAR (Средний LAR(Det))(02.09.2015 0-00-52).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,316 +439,321 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>6.0289997524730554E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.623863542533622E-4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>2.2267635177809276E-4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1.1324673489665254E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>3.3203922032205851E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4.4528595521871106E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5.3166778736146008E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1.6274688711491204E-4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2.1591366585105805E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.2570377786510576E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>3.4188840546957587E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>4.675921833346816E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>4.5259336322289491E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.6486699844303995E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>2.1012633476532943E-4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.0913847433527941E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>3.5275515421586171E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>4.6189362855114115E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3.5930210724187425E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.5471767150874291E-4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1.9064788223293033E-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>7.042293283615199E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2.2837131338551494E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>2.9879424622166693E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3.3461821794867423E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.8207404784328668E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>2.1553586963815412E-4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>7.0625785315800598E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>3.7051755425788552E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>4.4114333957368613E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2.8861859207143483E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.6488758282811716E-4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1.9374944203526064E-4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>7.8024789470113276E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>3.5286226162725877E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>4.3088705109737202E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2.1698171993865793E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1.5339177326480959E-4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1.7508994525867539E-4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>5.0489913712995528E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>3.267227485014996E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>3.7721266221449513E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1.3081744743368025E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1.1023731197898503E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.2331905672235304E-4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>3.0814258340130219E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>1.9159684935826383E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>2.2241110769839404E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1.3058909009606198E-5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>9.3321748014827768E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.0638065702443397E-4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>7.9770449835442028E-6</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1.6281353259218605E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1.7079057757573025E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>3.3049999999999997E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>1.5726999999999999E-4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>1.9032000000000001E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>7.7029999999999999E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>3.2197999999999998E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>3.9900999999999999E-4</v>
       </c>
     </row>
@@ -762,309 +763,314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2.7837987637039545E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>9.4000098014161953E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1.218380856512015E-4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2.6412007994223465E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>5.3123967656582791E-5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>7.9535975650806256E-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3.1995205005718667E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1.4984458589616367E-4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.8183979090188233E-4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>3.7022421835992168E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1.6867530457972117E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>2.0569772641571333E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>3.5463128129973803E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.9974600936038629E-4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>2.3520913749036008E-4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5.6912241282320709E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>3.4336220311575034E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>4.0027444439807107E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3.5396265000961243E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.9070165201206323E-4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2.2609791701302446E-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>7.0432548999982932E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2.9012259103892047E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>3.6055514003890341E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3.8064331479698786E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2.8083612871192227E-4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3.1890046019162103E-4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>6.7106210643870054E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>6.2578748664734118E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>6.9289369729121119E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>3.1955294351342374E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>2.3905637117593325E-4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2.7101166552727563E-4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>6.6976615698753419E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>4.4954021176582537E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>5.165168274645788E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2.7990791185796157E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>2.610257278783467E-4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>2.8901651906414286E-4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>6.1351742083464139E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>5.9220623356923824E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>6.5355797565270243E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1.6623820670238401E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>2.0124871064231158E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>2.1787253131254998E-4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>3.2195068525715314E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>4.0526332023102074E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>4.3745838875673606E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>2.9960000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>2.4441000000000003E-4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>2.7437000000000002E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>6.109E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>5.1210999999999997E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>5.7319999999999995E-4</v>
       </c>
     </row>
